--- a/Excel/AIConfig@cs.xlsx
+++ b/Excel/AIConfig@cs.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12210" tabRatio="809" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
     <sheet name="AIConfig_2" sheetId="7" r:id="rId2"/>
+    <sheet name="AIConfig_3" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -69,6 +70,15 @@
   </si>
   <si>
     <t>巡逻</t>
+  </si>
+  <si>
+    <t>AI_ZhuiZhu</t>
+  </si>
+  <si>
+    <t>追逐</t>
+  </si>
+  <si>
+    <t>AI_ATK</t>
   </si>
 </sst>
 </file>
@@ -78,8 +88,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,6 +98,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -96,90 +112,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,14 +196,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -232,6 +205,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -241,6 +222,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,30 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,20 +506,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +542,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -560,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -707,9 +717,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1033,19 +1043,19 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9.62727272727273" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.6272727272727" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.8727272727273" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.8727272727273" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.25454545454545" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3727272727273" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
@@ -1073,64 +1083,64 @@
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1179,22 +1189,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9.62727272727273" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.6272727272727" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.8727272727273" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.8727272727273" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.25454545454545" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3727272727273" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
@@ -1222,64 +1232,64 @@
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1300,10 +1310,139 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="7" ht="16.5" spans="3:8">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="16.5" spans="3:7">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="3" ht="16.5" spans="3:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="3:8">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="3:8">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="3:8">
+      <c r="C6" s="2">
+        <v>301</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="16.5" spans="3:8">
+      <c r="C7" s="2">
+        <v>302</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="H8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Excel/AIConfig@cs.xlsx
+++ b/Excel/AIConfig@cs.xlsx
@@ -10,13 +10,14 @@
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
     <sheet name="AIConfig_2" sheetId="7" r:id="rId2"/>
     <sheet name="AIConfig_3" sheetId="8" r:id="rId3"/>
+    <sheet name="AIConfig_4" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -79,6 +80,12 @@
   </si>
   <si>
     <t>AI_ATK</t>
+  </si>
+  <si>
+    <t>AI_IDLE</t>
+  </si>
+  <si>
+    <t>静置</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1346,7 @@
   <dimension ref="C3:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H14" sqref="G14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1438,8 +1445,134 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="8:8">
+    <row r="8" ht="16.5" spans="3:8">
+      <c r="C8" s="2">
+        <v>303</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="3" ht="16.5" spans="3:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="3:8">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="3:8">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="3:8">
+      <c r="C6" s="2">
+        <v>401</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="16.5" spans="3:8">
+      <c r="C7" s="2">
+        <v>402</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
